--- a/companies/SocietesMaritimes.xlsx
+++ b/companies/SocietesMaritimes.xlsx
@@ -866,7 +866,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>['Nan']</t>
+          <t>['NaN']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>['Nan']</t>
+          <t>['NaN']</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1711,7 +1711,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>['']</t>
+          <t>['NaN']</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2166,7 +2166,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>['']</t>
+          <t>['NaN']</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2231,7 +2231,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>['Nan']</t>
+          <t>['NaN']</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2301,7 +2301,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>['Nan']</t>
+          <t>['NaN']</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2446,7 +2446,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>['']</t>
+          <t>['NaN']</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3566,7 +3566,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>['']</t>
+          <t>['NaN']</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -4016,7 +4016,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>['Nan']</t>
+          <t>['NaN']</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -4121,7 +4121,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>['Nan']</t>
+          <t>['NaN']</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -4611,7 +4611,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>['Nan']</t>
+          <t>['NaN']</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -4786,7 +4786,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>['Nan']</t>
+          <t>['NaN']</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -5206,7 +5206,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>['Nan']</t>
+          <t>['NaN']</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -5381,7 +5381,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>['Nan']</t>
+          <t>['NaN']</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
